--- a/股市判断.xlsx
+++ b/股市判断.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145833FC-B482-4B22-A8AE-B4382407538B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6A5533-DB22-4A62-8587-3BB1F904BB70}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,13 +23,117 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2019.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MACD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KDJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOLL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波段之星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财运亨通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短线精灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短线高手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多空博弈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股海航帆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶底侦探</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抄底逃顶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波段炒作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎鹰渡关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱龙长线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱龙短线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>估计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -73,8 +177,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -395,26 +502,148 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACA34C4-0434-4D6B-87B5-CE124C4D0014}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>